--- a/data/trans_dic/P16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Edad-trans_dic.xlsx
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001712280409857912</v>
+        <v>0.001708785667900644</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002243967825128489</v>
+        <v>0.002254053636679412</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,28 +720,28 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02656108914217859</v>
+        <v>0.02506296630379503</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01134009021159936</v>
+        <v>0.009448185479648472</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01532656221749787</v>
+        <v>0.01675645082942087</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006575252815368733</v>
+        <v>0.006465552496119537</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01510885739459946</v>
+        <v>0.01488656725669408</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.00774946946857686</v>
+        <v>0.008163343902620168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008350740439634376</v>
+        <v>0.008390436695131398</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.005123154597468013</v>
+        <v>0.004312018944008628</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01525629847999675</v>
+        <v>0.01463265049919455</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02179298889353097</v>
+        <v>0.02007609900527841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01078430162879715</v>
+        <v>0.01184267118450748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02465539870223313</v>
+        <v>0.02115790964859997</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06260207721352626</v>
+        <v>0.06417581637953039</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03901578304278048</v>
+        <v>0.03811461976119307</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04833886159984831</v>
+        <v>0.04848856289775223</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05918432498055926</v>
+        <v>0.05612695777694236</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03444752433145012</v>
+        <v>0.03542321827679472</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02546485361375491</v>
+        <v>0.02405378501108007</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02474483281214477</v>
+        <v>0.02483298722556065</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03069455529198866</v>
+        <v>0.02852326474403333</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003586363330682007</v>
+        <v>0.003575944452162669</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006805670250830988</v>
+        <v>0.006728494663795252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004746336764525266</v>
+        <v>0.003422303705969782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003284109807633319</v>
+        <v>0.003327097668351652</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03121293975012839</v>
+        <v>0.03159676026451582</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03880110171227109</v>
+        <v>0.03812639424465359</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01534452089206125</v>
+        <v>0.0152341962890337</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01760157929332247</v>
+        <v>0.01635112794608972</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01810385968541982</v>
+        <v>0.01741973466573781</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02355870449844405</v>
+        <v>0.02345593007110404</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01163594438193261</v>
+        <v>0.01134908455488094</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01288303835510013</v>
+        <v>0.01309397989002541</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01744972454766882</v>
+        <v>0.01563546588186756</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02930781281896003</v>
+        <v>0.02768620787678982</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0211985683309131</v>
+        <v>0.02192153491266395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03230962981494251</v>
+        <v>0.03381365845548066</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06409640285317544</v>
+        <v>0.06546676911344243</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07751800732638015</v>
+        <v>0.07749224321730259</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04171663442881549</v>
+        <v>0.04364673481127335</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04975152025273003</v>
+        <v>0.05061326284203579</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03554181929974735</v>
+        <v>0.03520067480147494</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04446493140458039</v>
+        <v>0.04524656107606127</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02609441993110484</v>
+        <v>0.02612263306180824</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03376789977527019</v>
+        <v>0.03648612613013722</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01166444058493732</v>
+        <v>0.01215927189854986</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002623162688652246</v>
+        <v>0.002710143775566394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001576084737412616</v>
+        <v>0.00156549709941088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003681101264992382</v>
+        <v>0.003712502720700625</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02064896566048675</v>
+        <v>0.01974195121353444</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04218171929447069</v>
+        <v>0.04125768609302164</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02835131094672776</v>
+        <v>0.02838720070164679</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01906235359103655</v>
+        <v>0.01793413930017519</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01949411310158114</v>
+        <v>0.01988654175212305</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0239682790898467</v>
+        <v>0.02363781286109149</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01656017913812867</v>
+        <v>0.0161300707089405</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01335100080277904</v>
+        <v>0.01315679837210833</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03809515553830465</v>
+        <v>0.03618641245818341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01614472747536038</v>
+        <v>0.01666751621638162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01516979975917153</v>
+        <v>0.01410482960850097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02363132599678391</v>
+        <v>0.02238934508774536</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0469333968698508</v>
+        <v>0.0466427599256754</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07775267348630513</v>
+        <v>0.07757150225349556</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05787217188814097</v>
+        <v>0.05914311545764102</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04087542491122042</v>
+        <v>0.03984941411008671</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03739905498169478</v>
+        <v>0.03775770078627931</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04450760136314266</v>
+        <v>0.04341304457055848</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03320683436441075</v>
+        <v>0.03288991550057469</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02821215423458677</v>
+        <v>0.02739325555307106</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04010196131832744</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05122502698376077</v>
+        <v>0.05122502698376078</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02893821158191773</v>
@@ -1105,7 +1105,7 @@
         <v>0.02529479418890456</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03722780486166434</v>
+        <v>0.03722780486166435</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007517772173399207</v>
+        <v>0.007507782530123784</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003359728206069092</v>
+        <v>0.003306416808349772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00375224553427165</v>
+        <v>0.004849988994680511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01302566545887458</v>
+        <v>0.01289467619050448</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0266041364391355</v>
+        <v>0.02608377579651482</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03106852475965185</v>
+        <v>0.02820798553248473</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02649112555477904</v>
+        <v>0.02615576713500038</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03908289918007887</v>
+        <v>0.03995188613325679</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02013818857920285</v>
+        <v>0.01970863514294279</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01808182994927853</v>
+        <v>0.01813586165859717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01724745044757863</v>
+        <v>0.01743192170227852</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02890954986670496</v>
+        <v>0.02906685209216143</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03347889077916987</v>
+        <v>0.03320153025253805</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01938594093686352</v>
+        <v>0.01772299745355207</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02140855410198273</v>
+        <v>0.02352983865863433</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03773525945062835</v>
+        <v>0.0371002166143717</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06626767300352711</v>
+        <v>0.06174850241553324</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06712324219083578</v>
+        <v>0.06809657795037467</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06128065605697529</v>
+        <v>0.0615606303065975</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06443136436970091</v>
+        <v>0.06660154426015216</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04138933595258991</v>
+        <v>0.04153376501485864</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03822493860069313</v>
+        <v>0.03772669648795704</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03573452453407635</v>
+        <v>0.03556504363165119</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04757117284324861</v>
+        <v>0.04638586213125955</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01595326064582735</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03517294267892447</v>
+        <v>0.03517294267892446</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06786551536670771</v>
@@ -1229,7 +1229,7 @@
         <v>0.0393011579359189</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06990477500254856</v>
+        <v>0.06990477500254855</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.05056261276333757</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01571539844033745</v>
+        <v>0.01705166189642077</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001891564394215772</v>
+        <v>0.001875201676805401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004890393624135216</v>
+        <v>0.006636365187290873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02395822190382367</v>
+        <v>0.02418741880122822</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04729171244480691</v>
+        <v>0.04615270070963111</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04041985860114367</v>
+        <v>0.04142617800203792</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02423167048628187</v>
+        <v>0.02427561988659795</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05581575340698303</v>
+        <v>0.05401287190808398</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0367312603209203</v>
+        <v>0.0358881763960866</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02316294638434467</v>
+        <v>0.02239651336480659</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01885389710959821</v>
+        <v>0.01813858767309453</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04290936265742541</v>
+        <v>0.04309354087555729</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06023133266973121</v>
+        <v>0.05886400926949938</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02043453291884807</v>
+        <v>0.01887671228435783</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03256156620390561</v>
+        <v>0.03540597218622638</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0519204673118939</v>
+        <v>0.05319062801663891</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0966103179940543</v>
+        <v>0.09519103460862083</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0845180778709109</v>
+        <v>0.08895660801890555</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06075574012018329</v>
+        <v>0.05884447736733749</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08951286565885186</v>
+        <v>0.08374344134968828</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07038111855267111</v>
+        <v>0.06971476505949178</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04758429459832031</v>
+        <v>0.04779534484279692</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04258011503949308</v>
+        <v>0.04117752591855199</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06441613388168442</v>
+        <v>0.06356004077024546</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.04060584294114217</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05037445134795785</v>
+        <v>0.05037445134795786</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02365764423967045</v>
+        <v>0.02371181256804203</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01580294963456833</v>
+        <v>0.0163038763824532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.008877061393611984</v>
+        <v>0.008750153346537004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02076522004690827</v>
+        <v>0.02031450976620603</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07903741975495988</v>
+        <v>0.07863384829226271</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05193634734328395</v>
+        <v>0.05257134845832533</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03739469877212884</v>
+        <v>0.03690536603301706</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05125395961538651</v>
+        <v>0.05123252176171045</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05898903814270493</v>
+        <v>0.0585239632567983</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04232539016506488</v>
+        <v>0.04200862851005679</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02609613614433912</v>
+        <v>0.02765770402303293</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03946146899481837</v>
+        <v>0.03910031953252362</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07372821596113414</v>
+        <v>0.07302517145598679</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06066950857480493</v>
+        <v>0.0649719076229682</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03974791590837584</v>
+        <v>0.03894915982185058</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05415728436318572</v>
+        <v>0.0531250943313884</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1411643590913156</v>
+        <v>0.1401290863495198</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.114757938054599</v>
+        <v>0.1163344473344447</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08568517753928852</v>
+        <v>0.08524962849159823</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08795953937008814</v>
+        <v>0.08729341243149176</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09801350660126645</v>
+        <v>0.1030322390238744</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08359215781756046</v>
+        <v>0.07995484819456386</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05498072740568268</v>
+        <v>0.05864647911730534</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.06291202092032093</v>
+        <v>0.06242363530744651</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.05645580355179849</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.0794817576120715</v>
+        <v>0.07948175761207153</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05083963128164858</v>
+        <v>0.04886423804135957</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01323980245386727</v>
+        <v>0.01337738253508286</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02559172370238124</v>
+        <v>0.02285867880864557</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0243540090783241</v>
+        <v>0.0248668530467725</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04789802574207896</v>
+        <v>0.04747886716502361</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0907019059470672</v>
+        <v>0.09310479241150103</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04163658646605183</v>
+        <v>0.04037520205028988</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08630235137895721</v>
+        <v>0.08742885505483267</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05574758749705172</v>
+        <v>0.05544852044767619</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06638932410236716</v>
+        <v>0.0649882160859009</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04009145498909204</v>
+        <v>0.03859900593858172</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06538497785735826</v>
+        <v>0.06456658614117115</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1291718641555389</v>
+        <v>0.1283815022178219</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08296928571123043</v>
+        <v>0.07929132840195827</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07164214198714727</v>
+        <v>0.06723003150087584</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0601634925938631</v>
+        <v>0.0590952151948937</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1072196616465859</v>
+        <v>0.1084521501404856</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.158943929984236</v>
+        <v>0.1596756706358017</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09866206162085626</v>
+        <v>0.09726560422249542</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1280179999101311</v>
+        <v>0.1293504499176671</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1018457146947965</v>
+        <v>0.1054437768795044</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1155635260921846</v>
+        <v>0.1126916828782188</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07529848284995473</v>
+        <v>0.07825506833093658</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09503797529495163</v>
+        <v>0.09410522683576665</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01787624841270709</v>
+        <v>0.0173388800541074</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009515053600464606</v>
+        <v>0.00930292856154942</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.009026479037089185</v>
+        <v>0.009242280838390963</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01750095081419149</v>
+        <v>0.01740374855571909</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04634489438971721</v>
+        <v>0.04526609960611089</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05271082209420064</v>
+        <v>0.05254052173751511</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.035251451864123</v>
+        <v>0.03493270032981925</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04781439752896498</v>
+        <v>0.04782308958323538</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03373898616079787</v>
+        <v>0.03384077625063487</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03280342163685292</v>
+        <v>0.0324429455565006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0240652401626078</v>
+        <v>0.02392903685933381</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0344623917043537</v>
+        <v>0.03450654779983976</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0288765491678696</v>
+        <v>0.0278258246201784</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01792620202957717</v>
+        <v>0.01793182119195608</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01727313978615082</v>
+        <v>0.01692991018938545</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02747710060656051</v>
+        <v>0.02716706829890591</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06146344848268166</v>
+        <v>0.06053652538851954</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06945415756656906</v>
+        <v>0.06928702712434376</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04895396728801372</v>
+        <v>0.04901533423396617</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06004761908896834</v>
+        <v>0.05993935262044658</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04276052137304136</v>
+        <v>0.04289754052789286</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04200041994124094</v>
+        <v>0.04131932100474935</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03192150359104742</v>
+        <v>0.03177723846703377</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04226908147735559</v>
+        <v>0.04222967312488109</v>
       </c>
     </row>
     <row r="28">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2023,28 +2023,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12417</v>
+        <v>11717</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4869</v>
+        <v>4056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6066</v>
+        <v>6631</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2384</v>
+        <v>2344</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14528</v>
+        <v>14314</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6838</v>
+        <v>7204</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6808</v>
+        <v>6840</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3946</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7538</v>
+        <v>7229</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9875</v>
+        <v>9097</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4524</v>
+        <v>4968</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10054</v>
+        <v>8628</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29266</v>
+        <v>30001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16751</v>
+        <v>16364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19130</v>
+        <v>19190</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21455</v>
+        <v>20347</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33123</v>
+        <v>34061</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22471</v>
+        <v>21226</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20172</v>
+        <v>20244</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23644</v>
+        <v>21972</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2638</v>
+        <v>2630</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4670</v>
+        <v>4617</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2803</v>
+        <v>2021</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1566</v>
+        <v>1587</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19524</v>
+        <v>19764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23638</v>
+        <v>23227</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8647</v>
+        <v>8585</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8820</v>
+        <v>8193</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24639</v>
+        <v>23708</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>30519</v>
+        <v>30386</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13428</v>
+        <v>13097</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12599</v>
+        <v>12806</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12834</v>
+        <v>11500</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20112</v>
+        <v>18999</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12518</v>
+        <v>12945</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15408</v>
+        <v>16125</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>40092</v>
+        <v>40949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>47225</v>
+        <v>47209</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23509</v>
+        <v>24597</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24930</v>
+        <v>25361</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>48372</v>
+        <v>47907</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>57602</v>
+        <v>58615</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30114</v>
+        <v>30147</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>33024</v>
+        <v>35682</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7438</v>
+        <v>7753</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1784</v>
+        <v>1843</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2285</v>
+        <v>2305</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14243</v>
+        <v>13617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29778</v>
+        <v>29125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18751</v>
+        <v>18775</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11859</v>
+        <v>11158</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25876</v>
+        <v>26397</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>33220</v>
+        <v>32762</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22033</v>
+        <v>21461</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16595</v>
+        <v>16354</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24291</v>
+        <v>23074</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10979</v>
+        <v>11335</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10150</v>
+        <v>9437</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14671</v>
+        <v>13900</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32372</v>
+        <v>32172</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54888</v>
+        <v>54760</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38276</v>
+        <v>39116</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25430</v>
+        <v>24792</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49643</v>
+        <v>50119</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>61687</v>
+        <v>60170</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>44181</v>
+        <v>43759</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>35067</v>
+        <v>34049</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3903</v>
+        <v>3898</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2065</v>
+        <v>2032</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2424</v>
+        <v>3133</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9126</v>
+        <v>9034</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13718</v>
+        <v>13450</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19014</v>
+        <v>17263</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17195</v>
+        <v>16977</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>28800</v>
+        <v>29440</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20839</v>
+        <v>20394</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>22179</v>
+        <v>22246</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>22338</v>
+        <v>22577</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>41558</v>
+        <v>41784</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17380</v>
+        <v>17236</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11915</v>
+        <v>10893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13831</v>
+        <v>15201</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>26438</v>
+        <v>25993</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>34170</v>
+        <v>31840</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41079</v>
+        <v>41675</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39776</v>
+        <v>39958</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>47479</v>
+        <v>49078</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42829</v>
+        <v>42979</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>46887</v>
+        <v>46276</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>46281</v>
+        <v>46061</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>68384</v>
+        <v>66680</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6077</v>
+        <v>6594</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2337</v>
+        <v>3172</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14575</v>
+        <v>14715</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19105</v>
+        <v>18645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18100</v>
+        <v>18551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12039</v>
+        <v>12061</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>33905</v>
+        <v>32810</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>29043</v>
+        <v>28377</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>20294</v>
+        <v>19623</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>18378</v>
+        <v>17681</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>52170</v>
+        <v>52393</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23292</v>
+        <v>22763</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8753</v>
+        <v>8086</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15562</v>
+        <v>16921</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31586</v>
+        <v>32359</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>39029</v>
+        <v>38456</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>37847</v>
+        <v>39835</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>30186</v>
+        <v>29237</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>54374</v>
+        <v>50870</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>55650</v>
+        <v>55123</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>41691</v>
+        <v>41876</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>41506</v>
+        <v>40138</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>78318</v>
+        <v>77277</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6922</v>
+        <v>6938</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4864</v>
+        <v>5018</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2968</v>
+        <v>2925</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8453</v>
+        <v>8270</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>27105</v>
+        <v>26966</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>18337</v>
+        <v>18561</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>14126</v>
+        <v>13941</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>22509</v>
+        <v>22500</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>37489</v>
+        <v>37193</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>27971</v>
+        <v>27762</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>18583</v>
+        <v>19695</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>33394</v>
+        <v>33088</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21572</v>
+        <v>21366</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18674</v>
+        <v>19998</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13289</v>
+        <v>13022</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22046</v>
+        <v>21626</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>48410</v>
+        <v>48055</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40516</v>
+        <v>41073</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>32369</v>
+        <v>32204</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>38629</v>
+        <v>38336</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>62289</v>
+        <v>65479</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>55242</v>
+        <v>52838</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>39151</v>
+        <v>41762</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>53239</v>
+        <v>52826</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>10670</v>
+        <v>10256</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3297</v>
+        <v>3331</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6577</v>
+        <v>5875</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7543</v>
+        <v>7701</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15994</v>
+        <v>15854</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>35079</v>
+        <v>36009</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>16662</v>
+        <v>16157</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>39965</v>
+        <v>40486</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>30315</v>
+        <v>30152</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>42210</v>
+        <v>41319</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>26347</v>
+        <v>25366</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>50528</v>
+        <v>49896</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>27111</v>
+        <v>26945</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>20662</v>
+        <v>19746</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18412</v>
+        <v>17278</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>18633</v>
+        <v>18302</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>35802</v>
+        <v>36213</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>61472</v>
+        <v>61755</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>39481</v>
+        <v>38923</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>59282</v>
+        <v>59899</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>55383</v>
+        <v>57339</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>73474</v>
+        <v>71648</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>49484</v>
+        <v>51427</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>73444</v>
+        <v>72723</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>58554</v>
+        <v>56794</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>32534</v>
+        <v>31808</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>30639</v>
+        <v>31372</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>61801</v>
+        <v>61458</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>156609</v>
+        <v>152963</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>186812</v>
+        <v>186209</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>124950</v>
+        <v>123820</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>178458</v>
+        <v>178491</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>224524</v>
+        <v>225201</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>228419</v>
+        <v>225909</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>166986</v>
+        <v>166041</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>250321</v>
+        <v>250642</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>94586</v>
+        <v>91144</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>61293</v>
+        <v>61312</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>58631</v>
+        <v>57466</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>97029</v>
+        <v>95935</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>207697</v>
+        <v>204565</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>246152</v>
+        <v>245560</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>173519</v>
+        <v>173737</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>224117</v>
+        <v>223712</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>284559</v>
+        <v>285471</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>292461</v>
+        <v>287718</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>221500</v>
+        <v>220499</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>307025</v>
+        <v>306739</v>
       </c>
     </row>
     <row r="36">
